--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,21 +637,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,17 +721,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light Unlocking takeoff restrictions not recommended</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -912,26 +912,26 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Only infrared sensors available Fly with caution</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,21 +987,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,21 +1012,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,26 +1037,26 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>9-27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1071,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution:</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1096,15 +1096,165 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The ground or walls may contain metal</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15-21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Move away from sources of interference before attempting flight</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22-30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution:</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The ground or walls may contain metal Move away from sources of interference before attempting flight</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15-30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>32-35</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,21 +637,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,17 +721,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Move to environment with adequate light Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>11-21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -912,26 +912,26 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Only infrared sensors available Fly with caution</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,21 +987,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,21 +1012,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,26 +1037,26 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9-27</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1071,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Compass abnormal Solution:</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1096,165 +1096,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>The ground or walls may contain metal</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>15-21</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>22-30</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>31-35</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution:</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>The ground or walls may contain metal Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>15-30</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
         <is>
           <t>False</t>
         </is>
